--- a/myenv/GG_episodes.xlsx
+++ b/myenv/GG_episodes.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alia/Documents/Github/GG_app/myenv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{561D604C-9CE9-9040-AC57-7EBBB701213B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F905D935-0FFD-9D4F-8565-E1C5449E7017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17200"/>
+    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GG_episodes" sheetId="1" r:id="rId1"/>
@@ -812,9 +812,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1295,7 +1295,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1650,11 +1650,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6599,10 +6599,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Winter, Spring, Summer, Fall"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Happy, Sad, Funny, Contemplative"</formula1>
     </dataValidation>
   </dataValidations>
